--- a/documentation/script_descriptions.xlsx
+++ b/documentation/script_descriptions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>AvgMeth.pl*</t>
   </si>
@@ -58,6 +58,39 @@
   </si>
   <si>
     <t>brief description</t>
+  </si>
+  <si>
+    <t>splits FASTQ file based on adapter contamination</t>
+  </si>
+  <si>
+    <t>removes adapters from FASTQ files and trims the reads back X bases</t>
+  </si>
+  <si>
+    <t>takes GTF or BED files and creates windowed percent methylation tables</t>
+  </si>
+  <si>
+    <t>changes the header line of a single bed file</t>
+  </si>
+  <si>
+    <t>determines BS conversion efficiency of SAM file based on chrM</t>
+  </si>
+  <si>
+    <t>makes bed files UCSC genome browser compliant</t>
+  </si>
+  <si>
+    <t>takes GTF file to output promoter region in BED format</t>
+  </si>
+  <si>
+    <t>takes BSSeeker2 log files and slurps relevant information to put into table format</t>
+  </si>
+  <si>
+    <t>converts a SAM file to multiple PercentMethylation files</t>
+  </si>
+  <si>
+    <t>splits a FASTA file into single chromosome FASTA files</t>
+  </si>
+  <si>
+    <t>creates a table with average methylation across givin window size</t>
   </si>
 </sst>
 </file>
@@ -453,7 +486,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -473,55 +506,88 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
